--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2243680.229450891</v>
+        <v>-2246541.043243182</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.29172597538781</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>145.1532848842286</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>150.6804871963499</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>174.7959092744168</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>42.76267075606412</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.10285845164013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015063</v>
+        <v>155.5625557110023</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>66.67731766039434</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>138.1919715855276</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>178.3357833170975</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>98.86636198144576</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.80366602391545</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>356.7873209443147</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>11.74167907658358</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819519</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814988</v>
+        <v>73.18818411815019</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177534</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>267.3720688227417</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696365</v>
+        <v>93.83392671696369</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906619</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346714</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0076340145405</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.044837149191</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413785</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>123.7471255099446</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>122.9289677323735</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>144.7250005831185</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462197</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238293</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.3267021497081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.3135037226517</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>60.32297266393887</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>113.0992099793456</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>112.2919725119091</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.7304175246775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>85.8909220573302</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>81.74333192602201</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>139.188673966789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>248.0455461130018</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545304</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713.4357159889601</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C2" t="n">
-        <v>447.058059421782</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
-        <v>447.058059421782</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>300.438579740743</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4364,16 +4364,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>255.7225503044907</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>466.66566151776</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>466.66566151776</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>317.7312518565088</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>659.7474918534679</v>
       </c>
       <c r="V3" t="n">
-        <v>674.5171617232929</v>
+        <v>659.7474918534679</v>
       </c>
       <c r="W3" t="n">
-        <v>674.5171617232929</v>
+        <v>405.5101351252662</v>
       </c>
       <c r="X3" t="n">
-        <v>466.66566151776</v>
+        <v>197.6586349197334</v>
       </c>
       <c r="Y3" t="n">
-        <v>466.66566151776</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.8040081617345</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="C4" t="n">
-        <v>352.8040081617345</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="D4" t="n">
-        <v>352.8040081617345</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E4" t="n">
-        <v>204.8909145793414</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407077</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407077</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735297</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="X4" t="n">
-        <v>431.6957843755124</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.8040081617345</v>
+        <v>184.2346475167379</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.1670622275113</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="C5" t="n">
-        <v>634.1670622275113</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="D5" t="n">
-        <v>634.1670622275113</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="E5" t="n">
-        <v>367.7894056603333</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="F5" t="n">
-        <v>101.4117490931552</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>88.44793631971075</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946894</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="W5" t="n">
-        <v>634.1670622275113</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>634.1670622275113</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.1670622275113</v>
+        <v>307.6661507067967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270.5156819514826</v>
+        <v>442.931267414935</v>
       </c>
       <c r="C6" t="n">
-        <v>270.5156819514826</v>
+        <v>442.931267414935</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>442.931267414935</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>287.8512331313449</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>874.71836514027</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U6" t="n">
-        <v>646.5825191770834</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="V6" t="n">
-        <v>646.5825191770834</v>
+        <v>442.931267414935</v>
       </c>
       <c r="W6" t="n">
-        <v>646.5825191770834</v>
+        <v>442.931267414935</v>
       </c>
       <c r="X6" t="n">
-        <v>438.7310189715507</v>
+        <v>442.931267414935</v>
       </c>
       <c r="Y6" t="n">
-        <v>438.7310189715507</v>
+        <v>442.931267414935</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>434.2162990315442</v>
+        <v>608.5939046205087</v>
       </c>
       <c r="C7" t="n">
-        <v>334.3512869290737</v>
+        <v>439.6577216926019</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>289.5410822802661</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>289.5410822802661</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>289.5410822802661</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>120.9717216352695</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987222</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U7" t="n">
-        <v>434.2162990315442</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="V7" t="n">
-        <v>434.2162990315442</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="W7" t="n">
-        <v>434.2162990315442</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="X7" t="n">
-        <v>434.2162990315442</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="Y7" t="n">
-        <v>434.2162990315442</v>
+        <v>608.5939046205087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1282.524032908292</v>
+        <v>445.3154138245411</v>
       </c>
       <c r="C8" t="n">
-        <v>1282.524032908292</v>
+        <v>445.3154138245411</v>
       </c>
       <c r="D8" t="n">
-        <v>1282.524032908292</v>
+        <v>445.3154138245411</v>
       </c>
       <c r="E8" t="n">
-        <v>896.7357803100474</v>
+        <v>445.3154138245411</v>
       </c>
       <c r="F8" t="n">
-        <v>536.3445470329618</v>
+        <v>438.3699130753376</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4438610970188</v>
+        <v>426.5096311797986</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970188</v>
+        <v>120.443861097019</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229163</v>
+        <v>166.4989367229155</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677497</v>
+        <v>397.0601716677479</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937578</v>
+        <v>719.9935330937549</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721578</v>
+        <v>1110.988557721573</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999421</v>
+        <v>1512.924098999416</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830558</v>
+        <v>1879.125171830551</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271725</v>
+        <v>2157.168314271717</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257585</v>
+        <v>2317.794388257576</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590838</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259783</v>
+        <v>2196.656028259773</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.052678512942</v>
+        <v>2196.656028259773</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.052678512942</v>
+        <v>2196.656028259773</v>
       </c>
       <c r="V8" t="n">
-        <v>1655.989791169372</v>
+        <v>1865.593140916203</v>
       </c>
       <c r="W8" t="n">
-        <v>1655.989791169372</v>
+        <v>1595.520344125554</v>
       </c>
       <c r="X8" t="n">
-        <v>1282.524032908292</v>
+        <v>1222.054585864475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1282.524032908292</v>
+        <v>831.9152538886628</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>760.7292858761099</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>586.2762565949829</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>437.3418469337317</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>278.1043919282762</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
-        <v>278.1043919282762</v>
+        <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>141.2981465503661</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181694</v>
+        <v>70.55307842117654</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="J9" t="n">
-        <v>223.9894559067843</v>
+        <v>99.15933091977897</v>
       </c>
       <c r="K9" t="n">
-        <v>392.1194303282874</v>
+        <v>267.2893053412814</v>
       </c>
       <c r="L9" t="n">
-        <v>664.513470620702</v>
+        <v>539.6833456336951</v>
       </c>
       <c r="M9" t="n">
-        <v>1059.855309946849</v>
+        <v>876.9112108303583</v>
       </c>
       <c r="N9" t="n">
-        <v>1420.417238198186</v>
+        <v>1452.551690429091</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.05771779692</v>
+        <v>1760.175618089978</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106036</v>
+        <v>1997.684836227391</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590847</v>
+        <v>2307.861496570692</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590847</v>
+        <v>2325.820119590838</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160701</v>
+        <v>2188.151005160692</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661033</v>
+        <v>1993.721818661024</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505282</v>
+        <v>1993.721818661024</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.47270927354</v>
+        <v>1758.569710429281</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.235352545338</v>
+        <v>1515.127655869139</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.383852339805</v>
+        <v>1307.276155663606</v>
       </c>
       <c r="Y9" t="n">
-        <v>928.9446228961779</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>786.8282195092377</v>
+        <v>365.5692247320594</v>
       </c>
       <c r="C10" t="n">
-        <v>617.8920365813308</v>
+        <v>196.6330418041525</v>
       </c>
       <c r="D10" t="n">
-        <v>617.8920365813308</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="E10" t="n">
-        <v>469.9789429989377</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="F10" t="n">
-        <v>323.0889955010273</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="G10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="H10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181694</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909564</v>
+        <v>65.89540801909521</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736021</v>
+        <v>227.5779039736013</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632621</v>
+        <v>490.0022680632608</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794057</v>
+        <v>777.0810884794039</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.76843262062</v>
+        <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257116</v>
+        <v>1310.630639257113</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325119</v>
+        <v>1499.198894325115</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718232</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718232</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020056</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="T10" t="n">
-        <v>1223.161172545364</v>
+        <v>1322.96468894777</v>
       </c>
       <c r="U10" t="n">
-        <v>1223.161172545364</v>
+        <v>1033.841557452052</v>
       </c>
       <c r="V10" t="n">
-        <v>968.4766843394774</v>
+        <v>779.157069246165</v>
       </c>
       <c r="W10" t="n">
-        <v>968.4766843394774</v>
+        <v>489.7398992092043</v>
       </c>
       <c r="X10" t="n">
-        <v>968.4766843394774</v>
+        <v>365.5692247320594</v>
       </c>
       <c r="Y10" t="n">
-        <v>968.4766843394774</v>
+        <v>365.5692247320594</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5130,10 @@
         <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1097.964082041489</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.0278991135822</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>778.9112597012464</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>630.9981661188533</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.811296842976</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578559</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.77659230462</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.77659230462</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406603</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1279.612546871729</v>
       </c>
     </row>
     <row r="14">
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,22 +5291,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,10 +5367,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>551.263652184387</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>404.3737046864766</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2297.348357685166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2077.746892708107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1788.671666052305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1533.987177846418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.570007809457</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.58045691144</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,7 +6497,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1726.910023830708</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510508</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.05435957553</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,13 +6853,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,22 +7336,22 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,16 +7588,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>58.7009839691745</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>217.2510619670674</v>
       </c>
       <c r="O9" t="n">
-        <v>270.7237898362087</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>10.04743619019965</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864763</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>236.7770851880332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>27.30177672886874</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22683,7 +22683,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>82.1200999530754</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.6960474398127019</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.257951202386693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.51847645928555</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.1109899826303</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>173.4237883572454</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>67.54000767002822</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>79.63321623493864</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>99.28295407562258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-7.978062782642133e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>50775.64226829655</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675044</v>
@@ -26335,13 +26335,13 @@
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="K2" t="n">
         <v>60535.99497675043</v>
       </c>
-      <c r="K2" t="n">
-        <v>60535.99497675046</v>
-      </c>
       <c r="L2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512994</v>
+        <v>331437.5228512972</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.78434241</v>
+        <v>563905.7843424125</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.1433620123</v>
+        <v>99845.14336201179</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569554</v>
+        <v>147342.676956956</v>
       </c>
       <c r="N3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169017.9536818823</v>
+        <v>169017.9536818821</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>157189.0051277989</v>
+        <v>157189.0051277996</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.0322517935</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179353</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
-      </c>
       <c r="L4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.891514887</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488699</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543592</v>
+        <v>88290.79546543573</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-861378.0952090452</v>
+        <v>-861738.1782247623</v>
       </c>
       <c r="C6" t="n">
         <v>-252697.0360834647</v>
       </c>
       <c r="D6" t="n">
-        <v>-515339.190704713</v>
+        <v>-515339.1907047112</v>
       </c>
       <c r="E6" t="n">
-        <v>-615659.3514413602</v>
+        <v>-615694.0893667983</v>
       </c>
       <c r="F6" t="n">
-        <v>-51753.56709895017</v>
+        <v>-51788.30502438589</v>
       </c>
       <c r="G6" t="n">
-        <v>-51753.56709895016</v>
+        <v>-51788.30502438587</v>
       </c>
       <c r="H6" t="n">
-        <v>-51753.56709895017</v>
+        <v>-51788.3050243859</v>
       </c>
       <c r="I6" t="n">
-        <v>-51753.56709895021</v>
+        <v>-51788.3050243859</v>
       </c>
       <c r="J6" t="n">
-        <v>-120752.7215180643</v>
+        <v>-120787.4594434999</v>
       </c>
       <c r="K6" t="n">
-        <v>-51753.56709895017</v>
+        <v>-51788.30502438587</v>
       </c>
       <c r="L6" t="n">
-        <v>-160589.0179909935</v>
+        <v>-160589.017990993</v>
       </c>
       <c r="M6" t="n">
-        <v>-208086.5515859366</v>
+        <v>-208086.5515859372</v>
       </c>
       <c r="N6" t="n">
-        <v>-60743.8746289812</v>
+        <v>-60743.87462898115</v>
       </c>
       <c r="O6" t="n">
         <v>-60743.87462898116</v>
       </c>
       <c r="P6" t="n">
-        <v>-60743.87462898115</v>
+        <v>-60743.87462898116</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896811</v>
+        <v>885.8132865896791</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977117</v>
+        <v>581.4550298977094</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202027</v>
+        <v>271.7582728202009</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519927</v>
+        <v>482.1622137519948</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962054</v>
+        <v>317.7411498962033</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019367</v>
+        <v>591.2532582019392</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962054</v>
+        <v>317.7411498962033</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019367</v>
+        <v>591.2532582019392</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962054</v>
+        <v>317.7411498962033</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019367</v>
+        <v>591.2532582019392</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.4421156880928</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>139.2314069209986</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>30.88678650288759</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>182.946984632973</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.4817949004546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>251.3134900307092</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>247.5163149688736</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>19.45310886987338</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>16.50520426777928</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>68.38045911718207</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>68.57849331194133</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117124</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>50.08872479739676</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
         <v>251.0607682327524</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>81.8688998946713</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906604</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68734914637906</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.63785862811338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
         <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169636</v>
+        <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.178826391195</v>
       </c>
       <c r="T10" t="n">
-        <v>97.37334515280989</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>102.7806876566637</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.038358334006666e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.288636322337378e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551479</v>
+        <v>3.561058438551471</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381534</v>
+        <v>36.46968973381527</v>
       </c>
       <c r="I8" t="n">
-        <v>137.287705452256</v>
+        <v>137.2877054522557</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490089</v>
+        <v>302.2403836490082</v>
       </c>
       <c r="K8" t="n">
-        <v>452.979987352893</v>
+        <v>452.9799873528921</v>
       </c>
       <c r="L8" t="n">
-        <v>561.961729541713</v>
+        <v>561.9617295417117</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483029</v>
+        <v>625.2907025483015</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368373</v>
+        <v>635.4085598368359</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884909</v>
+        <v>599.9982849884897</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867512</v>
+        <v>512.0846547867501</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561263</v>
+        <v>384.5542494561254</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406595</v>
+        <v>223.692337140659</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849191</v>
+        <v>81.14761916849173</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475911</v>
+        <v>15.58853331475907</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841182</v>
+        <v>0.2848846750841176</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079691</v>
+        <v>1.905334239079687</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953281</v>
+        <v>18.40151751953277</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234903</v>
+        <v>65.60032358234889</v>
       </c>
       <c r="J9" t="n">
-        <v>180.012301947437</v>
+        <v>180.0123019474366</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657763</v>
+        <v>307.6696959657756</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247374</v>
+        <v>413.6998750247365</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913761</v>
+        <v>482.7682411913751</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139764</v>
+        <v>495.5456800139754</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059474</v>
+        <v>453.3274845059465</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730334</v>
+        <v>363.8352723730326</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726989</v>
+        <v>243.2142442726984</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053163</v>
+        <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799336</v>
+        <v>35.39074781799329</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150156</v>
+        <v>7.67983406015014</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815587</v>
+        <v>0.1253509367815584</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719097</v>
+        <v>1.597368221719093</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401162</v>
+        <v>14.20205564401159</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587976</v>
+        <v>48.03721888587966</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755401</v>
+        <v>112.9339332755399</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051823</v>
+        <v>185.5851443051819</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817647</v>
+        <v>237.4850899817642</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191126</v>
+        <v>250.394729519112</v>
       </c>
       <c r="N10" t="n">
-        <v>244.440902510887</v>
+        <v>244.4409025108865</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753502</v>
+        <v>225.7807373753498</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522805</v>
+        <v>193.1944256522801</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750418</v>
+        <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020591</v>
+        <v>71.82348386020576</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577734</v>
+        <v>27.83777164577728</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527049</v>
+        <v>6.825118765527034</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013265</v>
+        <v>0.08712917573013247</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572287</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>197.7888359819415</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>194.0102040017881</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223226</v>
+        <v>121.1944791223219</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079125</v>
+        <v>232.8901363079115</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717258</v>
+        <v>326.1953145717245</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210302</v>
+        <v>394.9444693210288</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402464</v>
+        <v>405.995496240245</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668042</v>
+        <v>369.9000735668029</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314817</v>
+        <v>280.8516590314806</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816768</v>
+        <v>162.2485595816759</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527408</v>
+        <v>8.106799326526925</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.2657106211792</v>
+        <v>53.17467528076992</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914173</v>
+        <v>169.8282569914167</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448632</v>
+        <v>275.1454952448623</v>
       </c>
       <c r="M9" t="n">
-        <v>399.3351912385323</v>
+        <v>340.6342072693568</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306431</v>
+        <v>581.4550298977094</v>
       </c>
       <c r="O9" t="n">
-        <v>581.4550298977117</v>
+        <v>310.731240061502</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587031</v>
+        <v>239.908301148902</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866773</v>
+        <v>313.3097579225259</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267293</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886737</v>
+        <v>19.57475315886713</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792994</v>
+        <v>163.315652479299</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420808</v>
+        <v>265.0751152420803</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809532</v>
+        <v>289.9786064809526</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901157</v>
+        <v>288.5730748901151</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893899</v>
+        <v>250.3658652893894</v>
       </c>
       <c r="P10" t="n">
-        <v>190.472984917174</v>
+        <v>190.4729849171736</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334746</v>
+        <v>47.59576302334717</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,10 +36206,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
